--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4155460.446835919</v>
+        <v>4148443.431944209</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421948.8236333235</v>
+        <v>601401.2939096448</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.10483205328065</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>26.76945686730916</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>206.8054829400688</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>101.69691616015</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.19510348422572</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>71.13219726967624</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>60.46179076613117</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>71.48178217897123</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.11041309544132</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505273821</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>103.0404762872337</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>182.0117913275581</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497981</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>238.5604723772494</v>
+        <v>224.8952567231514</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>149.07996677195</v>
       </c>
       <c r="W19" t="n">
-        <v>20.92260435685522</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>143.8155637736175</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>7.728334363154672</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051976</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.48723857462001</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>3.658918749019565</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.1331334855863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>22.31091043583092</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>20.44146110529585</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>122.8680358321517</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>132.4314103685668</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>256.3432811758636</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1686.741202187451</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2679.871482883595</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2679.871482883595</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2679.871482883595</v>
+        <v>2670.109235596698</v>
       </c>
       <c r="U2" t="n">
-        <v>2426.109697521687</v>
+        <v>2416.347450234789</v>
       </c>
       <c r="V2" t="n">
-        <v>2426.109697521687</v>
+        <v>2085.284562891219</v>
       </c>
       <c r="W2" t="n">
-        <v>2073.341042251573</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="X2" t="n">
-        <v>2073.341042251573</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y2" t="n">
-        <v>2073.341042251573</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>563.9091713093267</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>563.9091713093267</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.3318138408822</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2312.077176120202</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2312.077176120202</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1981.014288776631</v>
       </c>
       <c r="W5" t="n">
-        <v>1735.936904077774</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X5" t="n">
-        <v>1362.471145816694</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y5" t="n">
-        <v>972.3318138408822</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.28147018826922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>431.1223972961881</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>262.1225970345205</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>470.722514162039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.9299350185089</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>115.0154977457495</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>115.0154977457495</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2393.739093480086</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2139.977308118178</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2139.977308118178</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2139.977308118178</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1766.511549857098</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1376.372217881286</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4889,43 +4889,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>76.27673242182033</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>76.27673242182033</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.27673242182033</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155863</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805443</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822436</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5050,43 +5050,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M12" t="n">
-        <v>1323.128242957076</v>
+        <v>897.6601296826486</v>
       </c>
       <c r="N12" t="n">
-        <v>1465.726837047114</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O12" t="n">
-        <v>2135.190598349773</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>525.6009593486384</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1394.834981378878</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1194.91497129443</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1194.91497129443</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>1194.91497129443</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188992</v>
+        <v>1194.91497129443</v>
       </c>
       <c r="W13" t="n">
-        <v>525.6009593486384</v>
+        <v>1194.91497129443</v>
       </c>
       <c r="X13" t="n">
-        <v>525.6009593486384</v>
+        <v>966.9254203964124</v>
       </c>
       <c r="Y13" t="n">
-        <v>525.6009593486384</v>
+        <v>746.1328412528823</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731477</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.405785702849</v>
+        <v>967.0546881959776</v>
       </c>
       <c r="N15" t="n">
-        <v>1808.163466324677</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>946.9509829168464</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>946.9509829168464</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>657.5338128798858</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>429.5442619818684</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5503,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>112.7331480220997</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>523.6234168666124</v>
+        <v>508.1073603047983</v>
       </c>
       <c r="L18" t="n">
-        <v>523.6234168666124</v>
+        <v>508.1073603047983</v>
       </c>
       <c r="M18" t="n">
-        <v>843.9587363963142</v>
+        <v>508.1073603047983</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.370314660465</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
-        <v>2317.834075963124</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>734.0491896863227</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>506.0596387883054</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L21" t="n">
-        <v>738.0704661731477</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.405785702849</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1402.926441340468</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>540.515070690992</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3984312786563</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4853376962632</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>709.4512536188989</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>709.4512536188989</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>709.4512536188989</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5986,16 +5986,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>1288.32563221405</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N24" t="n">
-        <v>1288.32563221405</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O24" t="n">
-        <v>1957.789393516709</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2478.090015252456</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1180.11475868866</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>890.986119902218</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>636.3016316963311</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>636.3016316963311</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>636.3016316963311</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.509052552801</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,10 +6211,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,37 +6223,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1608.660951743751</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1608.660951743751</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1857.414365827714</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1304.520724115061</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1304.520724115061</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1304.520724115061</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1049.836235909174</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1049.836235909174</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="L30" t="n">
-        <v>1091.900579834586</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="M30" t="n">
-        <v>1412.235899364287</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N30" t="n">
-        <v>1756.756555001905</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>982.3063390367042</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>692.8891689997437</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>464.8996181017263</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>2911.709630095316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>3232.044949625018</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N33" t="n">
-        <v>3576.565605262635</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>4034.814521865531</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>985.7136853104475</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>757.7241344124302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>672.23610901302</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M36" t="n">
-        <v>1440.604255405482</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N36" t="n">
-        <v>1785.124911043099</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>2033.878325127062</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>585.9584193027001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>435.8417798903644</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>287.9286863079712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>287.9286863079712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>119.7533646277919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>894.5540770733951</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1214.889396603097</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>565.2896273329885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>565.2896273329885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>415.1729879206528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>565.2896273329885</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>214.2873941096117</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>625.1776629541243</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="L42" t="n">
-        <v>1239.074732711013</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="M42" t="n">
-        <v>1559.410052240715</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
-        <v>1559.410052240715</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>371.7442270155261</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570736</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>820.5263570570736</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>592.5368061590563</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>371.7442270155261</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,25 +7660,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>253.7007023605332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>664.5909712050459</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>894.5540770733951</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1214.889396603097</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1254.072065737337</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1030.286650526843</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1030.286650526843</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V46" t="n">
-        <v>775.602162320956</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W46" t="n">
-        <v>486.1849922839954</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X46" t="n">
-        <v>486.1849922839954</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>275.3806960126644</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9020,16 +9020,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,28 +9719,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>198.568530941954</v>
       </c>
       <c r="L30" t="n">
-        <v>172.4312014858189</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>304.3409946366636</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>202.8611258896133</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>76.34265200400827</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>198.568530941954</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>116.1540744796866</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.923876116559086</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>104.5112070090329</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>47.67688002132795</v>
+        <v>61.34209567542598</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>103.057676551878</v>
       </c>
       <c r="W19" t="n">
-        <v>265.6003939797358</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>1.605484249313719</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>213.8192266952346</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>282.8896567338145</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.4335714089832</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>248.4787245748084</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.451519866508477</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>126.6029179317052</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>125.9925015412733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>44.37878526647614</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>65.4893996150364</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>29.89407122271371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="F2" t="n">
         <v>742955.2135016471</v>
@@ -26331,31 +26331,31 @@
         <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="I2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="L2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="M2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="N2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="N2" t="n">
-        <v>742955.213501647</v>
-      </c>
       <c r="O2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768956</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759879</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905760009</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759183</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905759211</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.793690575925</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905759102</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905759108</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758697</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31896.41508750393</v>
+        <v>-31896.41508750382</v>
       </c>
       <c r="C6" t="n">
-        <v>558071.4641270404</v>
+        <v>558071.4641270405</v>
       </c>
       <c r="D6" t="n">
-        <v>558071.4641270404</v>
+        <v>558071.4641270405</v>
       </c>
       <c r="E6" t="n">
-        <v>125020.0573854583</v>
+        <v>124045.4661257375</v>
       </c>
       <c r="F6" t="n">
-        <v>650180.0938623546</v>
+        <v>649205.5026026329</v>
       </c>
       <c r="G6" t="n">
-        <v>650180.0938623548</v>
+        <v>649205.5026026331</v>
       </c>
       <c r="H6" t="n">
-        <v>650180.0938623545</v>
+        <v>649205.5026026329</v>
       </c>
       <c r="I6" t="n">
-        <v>650180.0938623546</v>
+        <v>649205.5026026331</v>
       </c>
       <c r="J6" t="n">
-        <v>473756.8746697615</v>
+        <v>472782.2834100401</v>
       </c>
       <c r="K6" t="n">
-        <v>650180.0938623545</v>
+        <v>649205.5026026331</v>
       </c>
       <c r="L6" t="n">
-        <v>650180.0938623545</v>
+        <v>649205.5026026332</v>
       </c>
       <c r="M6" t="n">
-        <v>515379.0786285174</v>
+        <v>514404.4873687961</v>
       </c>
       <c r="N6" t="n">
-        <v>650180.0938623545</v>
+        <v>649205.5026026331</v>
       </c>
       <c r="O6" t="n">
-        <v>650180.0938623544</v>
+        <v>649205.5026026331</v>
       </c>
       <c r="P6" t="n">
-        <v>650180.0938623545</v>
+        <v>649205.5026026331</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26715,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.37357052153106</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>189.6788634903486</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>49.56792418188243</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>9.642837417588964</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>247.544052557263</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>153.0517176144021</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>85.03869157211891</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>91.46952547873008</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>144.9665381786866</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.721567086496</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28058,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.614797267597169e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.899014361901209e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,31 +31375,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31609,7 +31609,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,7 +31621,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>358.3334935705289</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>196.1430416967713</v>
       </c>
       <c r="N15" t="n">
-        <v>409.3303282668784</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J18" t="n">
-        <v>142.5104110725393</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>288.961302100608</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,31 +32551,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>147.3268674777244</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.85750667712375</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,28 +33034,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>291.3194390094542</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,22 +33262,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,16 +33438,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,22 +33499,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>211.6116187059931</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>158.0642534345934</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,22 +34210,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>681.9045233985105</v>
       </c>
       <c r="N12" t="n">
-        <v>144.0389839293311</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178374</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>519.7140715247529</v>
       </c>
       <c r="N15" t="n">
-        <v>757.3309905270986</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178375</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.67278440587261</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>636.9619643608282</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178375</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349808</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>398.5929423100095</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>146.9530203269513</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,19 +36682,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>475.8078002350612</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>60.72709196759495</v>
       </c>
       <c r="L30" t="n">
-        <v>421.6889064418432</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>462.8776935382782</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37171,7 +37171,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>165.7866148567894</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>60.72709196759495</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>390.3502189581784</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.252830958915</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>60.72709196759495</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>158.0642534345933</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4148443.431944209</v>
+        <v>4153382.694793242</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>601401.2939096448</v>
+        <v>471291.7783964134</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>350.692229631667</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>26.76945686730916</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.3159054168623</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -949,10 +949,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>206.8054829400688</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>125.3709337301751</v>
       </c>
     </row>
     <row r="6">
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>71.13219726967624</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>4.72697103168254</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>74.24596078692531</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>60.46179076613117</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686215</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722632</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273821</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>103.0404762872337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>105.8261359933661</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497981</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.900916560956794</v>
       </c>
       <c r="U16" t="n">
-        <v>224.8952567231514</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>149.07996677195</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>204.129165153206</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174118</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>3.633341602776479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051976</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>256.3432811758636</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505273987</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>169.827716759979</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>31.27069149869242</v>
       </c>
       <c r="G43" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>256.3432811758636</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.109235596698</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2416.347450234789</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2085.284562891219</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W2" t="n">
-        <v>1732.515907621104</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.515907621104</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4473,64 +4473,64 @@
         <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
         <v>702.55736257324</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,19 +4597,19 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2312.077176120202</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.077176120202</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.014288776631</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1628.245633506517</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>1254.779875245437</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y5" t="n">
         <v>864.6405432696254</v>
@@ -4640,22 +4640,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>578.0123447940985</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="F7" t="n">
-        <v>431.1223972961881</v>
+        <v>431.1223972961883</v>
       </c>
       <c r="G7" t="n">
-        <v>262.1225970345205</v>
+        <v>262.1225970345207</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>104.3742244670509</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>863.1126181035233</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>494.1501011631116</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>135.8844025563611</v>
       </c>
       <c r="E8" t="n">
-        <v>135.884402556362</v>
+        <v>135.8844025563611</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9389018071586</v>
+        <v>128.9389018071577</v>
       </c>
       <c r="G8" t="n">
-        <v>115.0154977457495</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>115.0154977457495</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1249.712458167645</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761943</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482874</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359516</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355852</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155863</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805443</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822436</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028581</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L12" t="n">
-        <v>222.5746515181232</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>897.6601296826486</v>
+        <v>1387.227105931297</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.4843764226425</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1394.834981378878</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1194.91497129443</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1194.91497129443</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1194.91497129443</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1194.91497129443</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.91497129443</v>
+        <v>1009.579090436495</v>
       </c>
       <c r="X13" t="n">
-        <v>966.9254203964124</v>
+        <v>781.5895395384773</v>
       </c>
       <c r="Y13" t="n">
-        <v>746.1328412528823</v>
+        <v>674.6944526764913</v>
       </c>
     </row>
     <row r="14">
@@ -5263,52 +5263,52 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
         <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>967.0546881959776</v>
+        <v>887.0301175853476</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.466266460128</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028581</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,58 +5503,58 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047983</v>
+        <v>229.0376539332494</v>
       </c>
       <c r="L18" t="n">
-        <v>508.1073603047983</v>
+        <v>229.0376539332494</v>
       </c>
       <c r="M18" t="n">
-        <v>508.1073603047983</v>
+        <v>549.3729734629512</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609657</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>303.4081673726151</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,22 +5819,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>436.8967109626376</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L21" t="n">
         <v>1050.793780719526</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5986,46 +5986,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171745</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M24" t="n">
         <v>1479.482307609636</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,40 +6448,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>323.6581146605672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>323.6581146605672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,22 +6916,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805461</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,37 +6949,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>174.2673780309318</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>174.2673780309318</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>174.2673780309318</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,16 +7490,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>323.6581146605672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6581146605672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N42" t="n">
         <v>1128.069692924718</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>688.7859813545102</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>688.7859813545102</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4478345153607</v>
+        <v>538.6693419421745</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4478345153607</v>
+        <v>390.7562483597814</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4478345153607</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>870.43444618475</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>870.43444618475</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,10 +7724,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1016.198248099061</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>761.5137598931742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,7 +9251,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>198.568530941954</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849288</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>202.8611258896133</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>198.568530941954</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.923876116559086</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>112.7585173587287</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>219.6466444974324</v>
       </c>
       <c r="U16" t="n">
-        <v>61.34209567542598</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>103.057676551878</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>14.45548819888882</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>282.8896567338145</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>29.89407122271371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.98990566424405</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>90.21378475843805</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1503565242388</v>
       </c>
       <c r="G43" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>29.89407122271371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="F2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="F2" t="n">
-        <v>742955.2135016471</v>
-      </c>
       <c r="G2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="H2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="L2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="M2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="N2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="N2" t="n">
-        <v>742955.2135016472</v>
-      </c>
       <c r="O2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768956</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,31 +26426,31 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759879</v>
+        <v>787.7936905757942</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905760009</v>
+        <v>787.7936905758561</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759183</v>
+        <v>787.7936905758668</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759211</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575925</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905759102</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31896.41508750382</v>
+        <v>-31896.41508750424</v>
       </c>
       <c r="C6" t="n">
-        <v>558071.4641270405</v>
+        <v>558071.4641270406</v>
       </c>
       <c r="D6" t="n">
-        <v>558071.4641270405</v>
+        <v>558071.4641270408</v>
       </c>
       <c r="E6" t="n">
-        <v>124045.4661257375</v>
+        <v>124922.5982594855</v>
       </c>
       <c r="F6" t="n">
-        <v>649205.5026026329</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="G6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363829</v>
       </c>
       <c r="H6" t="n">
-        <v>649205.5026026329</v>
+        <v>650082.6347363829</v>
       </c>
       <c r="I6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363825</v>
       </c>
       <c r="J6" t="n">
-        <v>472782.2834100401</v>
+        <v>473659.4155437899</v>
       </c>
       <c r="K6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363825</v>
       </c>
       <c r="L6" t="n">
-        <v>649205.5026026332</v>
+        <v>650082.6347363828</v>
       </c>
       <c r="M6" t="n">
-        <v>514404.4873687961</v>
+        <v>515281.6195025452</v>
       </c>
       <c r="N6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363828</v>
       </c>
       <c r="O6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363824</v>
       </c>
       <c r="P6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363828</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370131</v>
+        <v>452.6387412370142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>32.0416120318136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>189.6788634903486</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352325</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>9.642837417588964</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>260.8670049258785</v>
       </c>
     </row>
     <row r="6">
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>85.03869157211891</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>130.2386507606557</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>339.5382092338697</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>91.46952547873008</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060691</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,31 +31375,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N6" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653333</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041485</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304437</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>358.3334935705289</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>394.9841349460416</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31864,16 +31864,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041486</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32086,13 +32086,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>196.1430416967713</v>
+        <v>115.3101420900742</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32101,16 +32101,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041486</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>6.528285267804193</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -32326,28 +32326,28 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>288.961302100608</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710955</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32554,16 +32554,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4869287318327</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32797,13 +32797,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>91.84465193776708</v>
+        <v>91.84465193776663</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
         <v>392.6063366508803</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33274,7 +33274,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33286,13 +33286,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446483</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33523,13 +33523,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33748,7 +33748,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33760,13 +33760,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
         <v>392.6063366508803</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34222,7 +34222,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
         <v>392.6063366508803</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303327</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>681.9045233985105</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415661</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178374</v>
+        <v>646.2502097783267</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187468</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>519.7140715247529</v>
+        <v>438.8811719180558</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415661</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178375</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187469</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502046</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>133.1520833060238</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>636.9619643608282</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178375</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714616</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206027</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187469</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>343.1107267700523</v>
+        <v>343.110726770052</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>343.1107267700522</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>740.6069989111005</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>60.72709196759495</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36934,7 +36934,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629105</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37171,7 +37171,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>60.72709196759495</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>740.6069989111005</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>60.72709196759495</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>740.6069989111005</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
